--- a/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化1D单元尺寸定义.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化1D单元尺寸定义.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -1721,7 +1721,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="160">
   <si>
     <t>用例编号</t>
   </si>
@@ -3159,6 +3159,10 @@
   </si>
   <si>
     <t>T型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期值控件标识属性</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3290,7 +3294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3340,6 +3344,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3645,18 +3655,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD20"/>
+  <dimension ref="A1:AE20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1:AD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="21" max="21" width="14.875" customWidth="1"/>
+    <col min="30" max="30" width="13.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="5" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:31" s="5" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3744,11 +3755,14 @@
       <c r="AC1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="5" customFormat="1" ht="121.5" customHeight="1">
+    <row r="2" spans="1:31" s="5" customFormat="1" ht="121.5" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>147</v>
       </c>
@@ -3836,9 +3850,10 @@
       <c r="AC2" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="AD2" s="16"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="16"/>
     </row>
-    <row r="3" spans="1:30" s="4" customFormat="1" ht="121.5" customHeight="1">
+    <row r="3" spans="1:31" s="4" customFormat="1" ht="121.5" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>89</v>
       </c>
@@ -3926,9 +3941,10 @@
       <c r="AC3" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="AD3" s="2"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="2"/>
     </row>
-    <row r="4" spans="1:30" s="4" customFormat="1" ht="121.5" customHeight="1">
+    <row r="4" spans="1:31" s="4" customFormat="1" ht="121.5" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -3958,8 +3974,9 @@
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="2"/>
+      <c r="AD4" s="19"/>
     </row>
-    <row r="5" spans="1:30" s="4" customFormat="1" ht="121.5" customHeight="1">
+    <row r="5" spans="1:31" s="4" customFormat="1" ht="121.5" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -3989,8 +4006,9 @@
       <c r="AA5" s="8"/>
       <c r="AB5" s="8"/>
       <c r="AC5" s="2"/>
+      <c r="AD5" s="19"/>
     </row>
-    <row r="6" spans="1:30" s="6" customFormat="1" ht="121.5" customHeight="1">
+    <row r="6" spans="1:31" s="6" customFormat="1" ht="121.5" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -4019,8 +4037,9 @@
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
       <c r="AB6" s="8"/>
+      <c r="AD6" s="19"/>
     </row>
-    <row r="7" spans="1:30" s="7" customFormat="1" ht="121.5" customHeight="1">
+    <row r="7" spans="1:31" s="7" customFormat="1" ht="121.5" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -4049,8 +4068,9 @@
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
       <c r="AB7" s="8"/>
+      <c r="AD7" s="19"/>
     </row>
-    <row r="8" spans="1:30" s="7" customFormat="1" ht="121.5" customHeight="1">
+    <row r="8" spans="1:31" s="7" customFormat="1" ht="121.5" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -4079,8 +4099,9 @@
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
       <c r="AB8" s="8"/>
+      <c r="AD8" s="19"/>
     </row>
-    <row r="9" spans="1:30" s="7" customFormat="1" ht="121.5" customHeight="1">
+    <row r="9" spans="1:31" s="7" customFormat="1" ht="121.5" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -4109,8 +4130,9 @@
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
       <c r="AB9" s="8"/>
+      <c r="AD9" s="19"/>
     </row>
-    <row r="10" spans="1:30" s="7" customFormat="1" ht="121.5" customHeight="1">
+    <row r="10" spans="1:31" s="7" customFormat="1" ht="121.5" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -4139,8 +4161,9 @@
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
+      <c r="AD10" s="19"/>
     </row>
-    <row r="11" spans="1:30" s="7" customFormat="1" ht="121.5" customHeight="1">
+    <row r="11" spans="1:31" s="7" customFormat="1" ht="121.5" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -4169,8 +4192,9 @@
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
+      <c r="AD11" s="19"/>
     </row>
-    <row r="12" spans="1:30" s="7" customFormat="1" ht="121.5" customHeight="1">
+    <row r="12" spans="1:31" s="7" customFormat="1" ht="121.5" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -4199,8 +4223,9 @@
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
+      <c r="AD12" s="19"/>
     </row>
-    <row r="13" spans="1:30" s="7" customFormat="1" ht="121.5" customHeight="1">
+    <row r="13" spans="1:31" s="7" customFormat="1" ht="121.5" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -4229,8 +4254,9 @@
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
+      <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" s="4" customFormat="1" ht="123" customHeight="1">
+    <row r="14" spans="1:31" s="4" customFormat="1" ht="123" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -4260,8 +4286,9 @@
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
       <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
     </row>
-    <row r="15" spans="1:30" s="4" customFormat="1" ht="123" customHeight="1">
+    <row r="15" spans="1:31" s="4" customFormat="1" ht="123" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -4291,8 +4318,9 @@
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
       <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
     </row>
-    <row r="16" spans="1:30" s="4" customFormat="1" ht="123" customHeight="1">
+    <row r="16" spans="1:31" s="4" customFormat="1" ht="123" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -4322,8 +4350,9 @@
       <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
       <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
     </row>
-    <row r="17" spans="1:29" s="4" customFormat="1" ht="123" customHeight="1">
+    <row r="17" spans="1:30" s="4" customFormat="1" ht="123" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -4353,8 +4382,9 @@
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
       <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
     </row>
-    <row r="18" spans="1:29" s="4" customFormat="1" ht="123" customHeight="1">
+    <row r="18" spans="1:30" s="4" customFormat="1" ht="123" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -4384,8 +4414,9 @@
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
       <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
     </row>
-    <row r="19" spans="1:29" s="4" customFormat="1" ht="123" customHeight="1">
+    <row r="19" spans="1:30" s="4" customFormat="1" ht="123" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -4415,8 +4446,9 @@
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
       <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
     </row>
-    <row r="20" spans="1:29" s="4" customFormat="1" ht="123" customHeight="1">
+    <row r="20" spans="1:30" s="4" customFormat="1" ht="123" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -4446,6 +4478,7 @@
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
       <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -4454,7 +4487,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA21:AA1048576 X1:X5">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W20 AD3:AD1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X6:X20">
@@ -4469,15 +4502,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1:AD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="30" max="30" width="13.5" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="5" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:31" s="5" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4565,11 +4601,14 @@
       <c r="AC1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="5" customFormat="1" ht="121.5" customHeight="1">
+    <row r="2" spans="1:31" s="5" customFormat="1" ht="121.5" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>147</v>
       </c>
@@ -4657,12 +4696,43 @@
       <c r="AC2" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="AD2" s="16"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="16"/>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="AD3" s="19"/>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="AD4" s="19"/>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="AD5" s="19"/>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="AD6" s="19"/>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="AD7" s="19"/>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="AD8" s="19"/>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="AD9" s="19"/>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="AD10" s="19"/>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="AD11" s="19"/>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="AD12" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W2 AD3:AD1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X2">
@@ -5316,10 +5386,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD20"/>
+  <dimension ref="A1:AE20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -5333,11 +5403,12 @@
     <col min="24" max="24" width="6" style="2" customWidth="1"/>
     <col min="25" max="28" width="6" style="3" customWidth="1"/>
     <col min="29" max="29" width="7.375" style="3" customWidth="1"/>
-    <col min="30" max="30" width="6.625" style="2" customWidth="1"/>
-    <col min="31" max="16384" width="10.875" style="4"/>
+    <col min="30" max="30" width="13.5" style="2" customWidth="1"/>
+    <col min="31" max="31" width="6.625" style="2" customWidth="1"/>
+    <col min="32" max="16384" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="5" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:31" s="5" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5425,11 +5496,14 @@
       <c r="AC1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="5" customFormat="1" ht="121.5" customHeight="1">
+    <row r="2" spans="1:31" s="5" customFormat="1" ht="121.5" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>147</v>
       </c>
@@ -5517,9 +5591,10 @@
       <c r="AC2" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="AD2" s="16"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="16"/>
     </row>
-    <row r="3" spans="1:30" ht="121.5" customHeight="1">
+    <row r="3" spans="1:31" ht="121.5" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>89</v>
       </c>
@@ -5607,8 +5682,9 @@
       <c r="AC3" s="8" t="s">
         <v>150</v>
       </c>
+      <c r="AD3" s="19"/>
     </row>
-    <row r="4" spans="1:30" ht="121.5" customHeight="1">
+    <row r="4" spans="1:31" ht="121.5" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>90</v>
       </c>
@@ -5696,8 +5772,9 @@
       <c r="AC4" s="8" t="s">
         <v>150</v>
       </c>
+      <c r="AD4" s="19"/>
     </row>
-    <row r="5" spans="1:30" ht="121.5" customHeight="1">
+    <row r="5" spans="1:31" ht="121.5" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>91</v>
       </c>
@@ -5785,8 +5862,9 @@
       <c r="AC5" s="8" t="s">
         <v>150</v>
       </c>
+      <c r="AD5" s="19"/>
     </row>
-    <row r="6" spans="1:30" s="6" customFormat="1" ht="121.5" customHeight="1">
+    <row r="6" spans="1:31" s="6" customFormat="1" ht="121.5" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>92</v>
       </c>
@@ -5872,9 +5950,10 @@
       <c r="AC6" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="AD6" s="2"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:30" s="7" customFormat="1" ht="121.5" customHeight="1">
+    <row r="7" spans="1:31" s="7" customFormat="1" ht="121.5" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>93</v>
       </c>
@@ -5960,9 +6039,10 @@
       <c r="AC7" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="AD7" s="2"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="2"/>
     </row>
-    <row r="8" spans="1:30" s="7" customFormat="1" ht="121.5" customHeight="1">
+    <row r="8" spans="1:31" s="7" customFormat="1" ht="121.5" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>94</v>
       </c>
@@ -6046,9 +6126,10 @@
       <c r="AC8" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="AD8" s="2"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="2"/>
     </row>
-    <row r="9" spans="1:30" s="7" customFormat="1" ht="121.5" customHeight="1">
+    <row r="9" spans="1:31" s="7" customFormat="1" ht="121.5" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>95</v>
       </c>
@@ -6136,9 +6217,10 @@
       <c r="AC9" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="AD9" s="2"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="2"/>
     </row>
-    <row r="10" spans="1:30" s="7" customFormat="1" ht="121.5" customHeight="1">
+    <row r="10" spans="1:31" s="7" customFormat="1" ht="121.5" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>96</v>
       </c>
@@ -6226,9 +6308,10 @@
       <c r="AC10" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="AD10" s="2"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="2"/>
     </row>
-    <row r="11" spans="1:30" s="7" customFormat="1" ht="121.5" customHeight="1">
+    <row r="11" spans="1:31" s="7" customFormat="1" ht="121.5" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>97</v>
       </c>
@@ -6316,9 +6399,10 @@
       <c r="AC11" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="AD11" s="2"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="2"/>
     </row>
-    <row r="12" spans="1:30" s="7" customFormat="1" ht="121.5" customHeight="1">
+    <row r="12" spans="1:31" s="7" customFormat="1" ht="121.5" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>98</v>
       </c>
@@ -6406,9 +6490,10 @@
       <c r="AC12" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="AD12" s="2"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="2"/>
     </row>
-    <row r="13" spans="1:30" s="7" customFormat="1" ht="121.5" customHeight="1">
+    <row r="13" spans="1:31" s="7" customFormat="1" ht="121.5" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>99</v>
       </c>
@@ -6497,8 +6582,9 @@
         <v>150</v>
       </c>
       <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="123" customHeight="1">
+    <row r="14" spans="1:31" ht="123" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>100</v>
       </c>
@@ -6587,7 +6673,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="123" customHeight="1">
+    <row r="15" spans="1:31" ht="123" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>101</v>
       </c>
@@ -6676,7 +6762,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="123" customHeight="1">
+    <row r="16" spans="1:31" ht="123" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>102</v>
       </c>
@@ -7130,7 +7216,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X5">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W21:X1048576 W1:W20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W21:X1048576 W1:W20 AD3:AD1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化1D单元尺寸定义.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化1D单元尺寸定义.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -1904,18 +1904,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>X轴；ComboBox</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局坐标系；ComboBox</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择结构单元；Button</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>方式二</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3163,6 +3151,18 @@
   </si>
   <si>
     <t>预期值控件标识属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择结构单元][Button</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局坐标系][ComboBox</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>X轴][ComboBox</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3753,27 +3753,27 @@
         <v>14</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:31" s="5" customFormat="1" ht="121.5" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E2" s="8">
         <v>1000</v>
@@ -3782,89 +3782,89 @@
         <v>1000</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="R2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="T2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="W2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q2" s="8" t="s">
+      <c r="X2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y2" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="R2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="W2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA2" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>128</v>
       </c>
       <c r="AB2" s="8">
         <v>1</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AD2" s="18"/>
       <c r="AE2" s="16"/>
     </row>
     <row r="3" spans="1:31" s="4" customFormat="1" ht="121.5" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E3" s="8">
         <v>1000</v>
@@ -3873,25 +3873,25 @@
         <v>1000</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N3" s="8">
         <v>100</v>
@@ -3903,43 +3903,43 @@
         <v>100</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y3" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="Z3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="AB3" s="8">
         <v>1</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AD3" s="19"/>
       <c r="AE3" s="2"/>
@@ -4599,27 +4599,27 @@
         <v>14</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:31" s="5" customFormat="1" ht="121.5" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E2" s="8">
         <v>1000</v>
@@ -4628,73 +4628,73 @@
         <v>1000</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="S2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="T2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="S2" s="8" t="s">
+      <c r="W2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="AB2" s="8">
         <v>1</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AD2" s="18"/>
       <c r="AE2" s="16"/>
@@ -4748,8 +4748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4848,13 +4848,13 @@
         <v>35</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>44</v>
@@ -4872,7 +4872,7 @@
         <v>37</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>38</v>
@@ -4892,55 +4892,55 @@
         <v>39</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>110</v>
-      </c>
       <c r="G3" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J3" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="L3" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="L3" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>114</v>
-      </c>
       <c r="O3" s="15" t="s">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="P3" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="R3" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="S3" s="15" t="s">
         <v>49</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>52</v>
       </c>
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
@@ -4990,13 +4990,13 @@
         <v>42</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R4" s="15" t="s">
         <v>42</v>
@@ -5043,7 +5043,7 @@
         <v>45</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M5" s="15" t="s">
         <v>46</v>
@@ -5134,238 +5134,238 @@
     </row>
     <row r="7" spans="1:22" s="17" customFormat="1" ht="40.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="17" customFormat="1" ht="40.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="S8" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:22" s="17" customFormat="1" ht="40.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R9" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="17" customFormat="1" ht="40.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="40.5" customHeight="1"/>
@@ -5388,7 +5388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
@@ -5494,27 +5494,27 @@
         <v>14</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:31" s="5" customFormat="1" ht="121.5" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E2" s="8">
         <v>1000</v>
@@ -5523,89 +5523,89 @@
         <v>1000</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="S2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="T2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="W2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="M2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="W2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA2" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>128</v>
       </c>
       <c r="AB2" s="8">
         <v>1</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AD2" s="18"/>
       <c r="AE2" s="16"/>
     </row>
     <row r="3" spans="1:31" ht="121.5" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E3" s="8">
         <v>1000</v>
@@ -5614,25 +5614,25 @@
         <v>1000</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N3" s="8">
         <v>100</v>
@@ -5644,58 +5644,58 @@
         <v>100</v>
       </c>
       <c r="Q3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="R3" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="S3" s="8" t="s">
+      <c r="T3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="AB3" s="8">
         <v>1</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AD3" s="19"/>
     </row>
     <row r="4" spans="1:31" ht="121.5" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E4" s="8">
         <v>1000</v>
@@ -5704,88 +5704,88 @@
         <v>1000</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="V4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="W4" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="X4" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Z4" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AA4" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AB4" s="8">
         <v>1</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AD4" s="19"/>
     </row>
     <row r="5" spans="1:31" ht="121.5" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E5" s="8">
         <v>1000</v>
@@ -5794,25 +5794,25 @@
         <v>1000</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N5" s="8">
         <v>100</v>
@@ -5824,172 +5824,172 @@
         <v>100</v>
       </c>
       <c r="Q5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="S5" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="R5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="S5" s="8" t="s">
+      <c r="T5" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA5" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="V5" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="W5" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="X5" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y5" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z5" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA5" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="AB5" s="8">
         <v>1</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AD5" s="19"/>
     </row>
     <row r="6" spans="1:31" s="6" customFormat="1" ht="121.5" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E6" s="8">
         <v>1000</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K6" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="L6" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="P6" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="W6" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y6" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Z6" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AA6" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AB6" s="8">
         <v>1</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AD6" s="19"/>
       <c r="AE6" s="2"/>
     </row>
     <row r="7" spans="1:31" s="7" customFormat="1" ht="121.5" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8">
         <v>1000</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N7" s="8">
         <v>100</v>
@@ -6001,146 +6001,146 @@
         <v>100</v>
       </c>
       <c r="Q7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="S7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="R7" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="S7" s="8" t="s">
+      <c r="T7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA7" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="V7" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="W7" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="X7" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y7" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z7" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA7" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="AB7" s="8">
         <v>1</v>
       </c>
       <c r="AC7" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AD7" s="19"/>
       <c r="AE7" s="2"/>
     </row>
     <row r="8" spans="1:31" s="7" customFormat="1" ht="121.5" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K8" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U8" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="L8" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="V8" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="W8" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="X8" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y8" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Z8" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AA8" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AB8" s="8">
         <v>1</v>
       </c>
       <c r="AC8" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AD8" s="19"/>
       <c r="AE8" s="2"/>
     </row>
     <row r="9" spans="1:31" s="7" customFormat="1" ht="121.5" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E9" s="8">
         <v>1000</v>
@@ -6149,89 +6149,89 @@
         <v>1000</v>
       </c>
       <c r="G9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="S9" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="K9" s="8" t="s">
+      <c r="T9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U9" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="L9" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="S9" s="8" t="s">
+      <c r="V9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="X9" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA9" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="U9" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="V9" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="W9" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="X9" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y9" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z9" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA9" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="AB9" s="8">
         <v>1</v>
       </c>
       <c r="AC9" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AD9" s="19"/>
       <c r="AE9" s="2"/>
     </row>
     <row r="10" spans="1:31" s="7" customFormat="1" ht="121.5" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E10" s="8">
         <v>1000</v>
@@ -6240,89 +6240,89 @@
         <v>1000</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I10" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="W10" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="S10" s="8" t="s">
+      <c r="X10" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="T10" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="U10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="V10" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="W10" s="8" t="s">
+      <c r="Y10" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA10" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="X10" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y10" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z10" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA10" s="8" t="s">
-        <v>128</v>
       </c>
       <c r="AB10" s="8">
         <v>1</v>
       </c>
       <c r="AC10" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AD10" s="19"/>
       <c r="AE10" s="2"/>
     </row>
     <row r="11" spans="1:31" s="7" customFormat="1" ht="121.5" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E11" s="8">
         <v>1000</v>
@@ -6331,89 +6331,89 @@
         <v>1000</v>
       </c>
       <c r="G11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="S11" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="S11" s="8" t="s">
+      <c r="T11" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="X11" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y11" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA11" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="T11" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="U11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="V11" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="W11" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="X11" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y11" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z11" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA11" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="AB11" s="8">
         <v>2</v>
       </c>
       <c r="AC11" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AD11" s="19"/>
       <c r="AE11" s="2"/>
     </row>
     <row r="12" spans="1:31" s="7" customFormat="1" ht="121.5" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E12" s="8">
         <v>1000</v>
@@ -6422,89 +6422,89 @@
         <v>1000</v>
       </c>
       <c r="G12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="S12" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="8" t="s">
+      <c r="T12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U12" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="L12" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="R12" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="S12" s="8" t="s">
+      <c r="V12" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="W12" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="X12" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA12" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="T12" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="U12" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="V12" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="W12" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="X12" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y12" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z12" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA12" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="AB12" s="8">
         <v>3</v>
       </c>
       <c r="AC12" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AD12" s="19"/>
       <c r="AE12" s="2"/>
     </row>
     <row r="13" spans="1:31" s="7" customFormat="1" ht="121.5" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E13" s="8">
         <v>1000</v>
@@ -6513,89 +6513,89 @@
         <v>1000</v>
       </c>
       <c r="G13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="S13" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="S13" s="8" t="s">
+      <c r="T13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="X13" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA13" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="T13" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="U13" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="V13" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="W13" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="X13" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y13" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z13" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA13" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="AB13" s="8">
         <v>4</v>
       </c>
       <c r="AC13" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
     </row>
     <row r="14" spans="1:31" ht="123" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E14" s="8">
         <v>1000</v>
@@ -6604,87 +6604,87 @@
         <v>1000</v>
       </c>
       <c r="G14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="S14" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="R14" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="S14" s="8" t="s">
+      <c r="T14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="X14" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y14" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA14" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="T14" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="U14" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="V14" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="W14" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="X14" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y14" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z14" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA14" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="AB14" s="8">
         <v>5</v>
       </c>
       <c r="AC14" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="123" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E15" s="8">
         <v>1000</v>
@@ -6693,25 +6693,25 @@
         <v>1000</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N15" s="8">
         <v>100</v>
@@ -6720,60 +6720,60 @@
         <v>100</v>
       </c>
       <c r="P15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="S15" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="Q15" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="R15" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="S15" s="8" t="s">
+      <c r="T15" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA15" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="T15" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="U15" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="V15" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="W15" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="X15" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y15" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z15" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA15" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="AB15" s="8">
         <v>6</v>
       </c>
       <c r="AC15" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="123" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E16" s="8">
         <v>1000</v>
@@ -6782,87 +6782,87 @@
         <v>1000</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N16" s="8">
         <v>100</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="S16" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="Q16" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="S16" s="8" t="s">
+      <c r="T16" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="U16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="W16" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="X16" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA16" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="T16" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="U16" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="V16" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="W16" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="X16" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y16" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z16" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA16" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="AB16" s="8">
         <v>7</v>
       </c>
       <c r="AC16" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="123" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E17" s="8">
         <v>1000</v>
@@ -6871,87 +6871,87 @@
         <v>1000</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S17" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T17" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="U17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="W17" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="U17" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="V17" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="W17" s="8" t="s">
+      <c r="X17" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z17" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA17" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="X17" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y17" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z17" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA17" s="8" t="s">
-        <v>128</v>
       </c>
       <c r="AB17" s="8">
         <v>8</v>
       </c>
       <c r="AC17" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="123" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E18" s="8">
         <v>1000</v>
@@ -6960,87 +6960,87 @@
         <v>1000</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="N18" s="8">
         <v>100</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P18" s="8">
         <v>100</v>
       </c>
       <c r="Q18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="S18" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="R18" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="S18" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="T18" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="U18" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="V18" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="W18" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="X18" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA18" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="X18" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y18" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z18" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA18" s="8" t="s">
-        <v>128</v>
       </c>
       <c r="AB18" s="8">
         <v>9</v>
       </c>
       <c r="AC18" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="123" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E19" s="8">
         <v>1000</v>
@@ -7049,28 +7049,28 @@
         <v>1000</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8">
         <v>100</v>
@@ -7079,57 +7079,57 @@
         <v>100</v>
       </c>
       <c r="Q19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="S19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="R19" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="S19" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="T19" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U19" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="V19" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="W19" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="X19" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y19" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA19" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="X19" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y19" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z19" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA19" s="8" t="s">
-        <v>128</v>
       </c>
       <c r="AB19" s="8">
         <v>10</v>
       </c>
       <c r="AC19" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="123" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E20" s="8">
         <v>1000</v>
@@ -7138,73 +7138,73 @@
         <v>1000</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P20" s="8">
         <v>100</v>
       </c>
       <c r="Q20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="S20" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="R20" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="S20" s="8" t="s">
+      <c r="T20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="V20" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="W20" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="X20" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA20" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="T20" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="U20" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="V20" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="W20" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="X20" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y20" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z20" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA20" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="AB20" s="8">
         <v>11</v>
       </c>
       <c r="AC20" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化1D单元尺寸定义.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化1D单元尺寸定义.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -1721,7 +1721,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="161">
   <si>
     <t>用例编号</t>
   </si>
@@ -3163,6 +3163,10 @@
   </si>
   <si>
     <t>X轴][ComboBox</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一维单元尺寸定义已完成！1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -4504,8 +4508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1:AD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4673,7 +4677,7 @@
         <v>62</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="W2" s="8" t="s">
         <v>122</v>
@@ -4748,7 +4752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>

--- a/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化1D单元尺寸定义.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化1D单元尺寸定义.xlsx
@@ -1721,7 +1721,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="160">
   <si>
     <t>用例编号</t>
   </si>
@@ -3163,10 +3163,6 @@
   </si>
   <si>
     <t>X轴][ComboBox</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>一维单元尺寸定义已完成！1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -4509,7 +4505,7 @@
   <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4677,7 +4673,7 @@
         <v>62</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="W2" s="8" t="s">
         <v>122</v>

--- a/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化1D单元尺寸定义.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化1D单元尺寸定义.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -4504,7 +4504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
@@ -4748,8 +4748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化1D单元尺寸定义.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化1D单元尺寸定义.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -1253,8 +1253,7 @@
           <t xml:space="preserve">
 窗口一
 窗口二
-窗口三
-窗口四</t>
+窗口三</t>
         </r>
       </text>
     </comment>
@@ -1317,11 +1316,126 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>作者</author>
     <author>个人用户</author>
-    <author>作者</author>
   </authors>
   <commentList>
     <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用于对比文本信息</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用例执行状态
+执行
+不执行</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+预期值展示类型
+弹窗警告
+信息窗口
+控件文本</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+在被测模块可能有嵌套窗口</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在执行每条用例前都会需要初始化模块</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1350,7 +1464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1378,7 +1492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1406,7 +1520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1434,7 +1548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1462,7 +1576,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1490,7 +1604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1518,7 +1632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1546,7 +1660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1575,7 +1689,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1598,121 +1712,6 @@
           </rPr>
           <t xml:space="preserve">
 全局坐标系</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V1" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-用于对比文本信息</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W1" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-用例执行状态
-执行
-不执行</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X1" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-预期值展示类型
-弹窗警告
-信息窗口
-控件文本</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y1" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-在被测模块可能有嵌套窗口</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA1" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>在执行每条用例前都会需要初始化模块</t>
         </r>
       </text>
     </comment>
@@ -1721,7 +1720,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="160">
   <si>
     <t>用例编号</t>
   </si>
@@ -1766,10 +1765,6 @@
   </si>
   <si>
     <t>操作子窗口标题</t>
-  </si>
-  <si>
-    <t>所操作实例</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>测试结果等待时间</t>
@@ -3163,6 +3158,10 @@
   </si>
   <si>
     <t>X轴][ComboBox</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>所操作控件窗口</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3678,58 +3677,58 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>6</v>
@@ -3750,30 +3749,30 @@
         <v>5</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:31" s="5" customFormat="1" ht="121.5" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="8">
         <v>1000</v>
@@ -3782,89 +3781,89 @@
         <v>1000</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="J2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q2" s="8" t="s">
+      <c r="U2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="R2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="W2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA2" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="AB2" s="8">
         <v>1</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AD2" s="18"/>
       <c r="AE2" s="16"/>
     </row>
     <row r="3" spans="1:31" s="4" customFormat="1" ht="121.5" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="8">
         <v>1000</v>
@@ -3873,25 +3872,25 @@
         <v>1000</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N3" s="8">
         <v>100</v>
@@ -3903,43 +3902,43 @@
         <v>100</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="T3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="T3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="V3" s="8" t="s">
+      <c r="W3" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W3" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Z3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA3" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="AB3" s="8">
         <v>1</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD3" s="19"/>
       <c r="AE3" s="2"/>
@@ -4524,58 +4523,58 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>6</v>
@@ -4596,30 +4595,30 @@
         <v>5</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:31" s="5" customFormat="1" ht="121.5" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E2" s="8">
         <v>1000</v>
@@ -4628,73 +4627,73 @@
         <v>1000</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="J2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="S2" s="8" t="s">
+      <c r="U2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="T2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="V2" s="8" t="s">
+      <c r="W2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W2" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA2" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="AB2" s="8">
         <v>1</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD2" s="18"/>
       <c r="AE2" s="16"/>
@@ -4748,8 +4747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4765,58 +4764,58 @@
     <row r="1" spans="1:22" s="5" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="10"/>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="T1" s="10"/>
       <c r="U1" s="10"/>
@@ -4827,58 +4826,58 @@
         <v>7</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="H2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="P2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="15" t="s">
+      <c r="Q2" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="S2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="T2" s="12"/>
       <c r="U2" s="12"/>
@@ -4889,58 +4888,58 @@
         <v>8</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="G3" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="K3" s="15" t="s">
+      <c r="L3" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="M3" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="N3" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="N3" s="15" t="s">
-        <v>111</v>
-      </c>
       <c r="O3" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>49</v>
       </c>
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
@@ -4951,58 +4950,58 @@
         <v>9</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
@@ -5010,61 +5009,61 @@
     </row>
     <row r="5" spans="1:22" ht="40.5" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>41</v>
-      </c>
       <c r="D5" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M5" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="N5" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>46</v>
-      </c>
       <c r="O5" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
@@ -5134,238 +5133,238 @@
     </row>
     <row r="7" spans="1:22" s="17" customFormat="1" ht="40.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="J7" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="K7" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="L7" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="R7" s="14" t="s">
-        <v>51</v>
-      </c>
       <c r="S7" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="17" customFormat="1" ht="40.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S8" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:22" s="17" customFormat="1" ht="40.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="17" customFormat="1" ht="40.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="40.5" customHeight="1"/>
@@ -5386,10 +5385,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE20"/>
+  <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -5397,18 +5396,17 @@
     <col min="1" max="1" width="8.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="39.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.125" style="2" customWidth="1"/>
-    <col min="4" max="21" width="5.75" style="2" customWidth="1"/>
-    <col min="22" max="22" width="27.375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="5.25" style="2" customWidth="1"/>
-    <col min="24" max="24" width="6" style="2" customWidth="1"/>
-    <col min="25" max="28" width="6" style="3" customWidth="1"/>
-    <col min="29" max="29" width="7.375" style="3" customWidth="1"/>
-    <col min="30" max="30" width="13.5" style="2" customWidth="1"/>
-    <col min="31" max="31" width="6.625" style="2" customWidth="1"/>
-    <col min="32" max="16384" width="10.875" style="4"/>
+    <col min="4" max="4" width="27.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6" style="2" customWidth="1"/>
+    <col min="7" max="10" width="6" style="3" customWidth="1"/>
+    <col min="11" max="11" width="7.375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="2" customWidth="1"/>
+    <col min="13" max="30" width="5.75" style="2" customWidth="1"/>
+    <col min="31" max="16384" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="5" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:30" s="5" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5419,1804 +5417,1792 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:30" s="5" customFormat="1" ht="121.5" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="8">
+        <v>1</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="L2" s="18"/>
+      <c r="M2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="8">
+        <v>1000</v>
+      </c>
+      <c r="O2" s="8">
+        <v>1000</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="121.5" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="AD1" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>148</v>
+      <c r="L3" s="19"/>
+      <c r="M3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="8">
+        <v>1000</v>
+      </c>
+      <c r="O3" s="8">
+        <v>1000</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="W3" s="8">
+        <v>100</v>
+      </c>
+      <c r="X3" s="8">
+        <v>100</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>100</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="5" customFormat="1" ht="121.5" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="8">
+    <row r="4" spans="1:30" ht="121.5" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4" s="19"/>
+      <c r="M4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="8">
         <v>1000</v>
       </c>
-      <c r="F2" s="8">
+      <c r="O4" s="8">
         <v>1000</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB2" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="16"/>
-    </row>
-    <row r="3" spans="1:31" ht="121.5" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="8">
-        <v>1000</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1000</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="N3" s="8">
-        <v>100</v>
-      </c>
-      <c r="O3" s="8">
-        <v>100</v>
-      </c>
-      <c r="P3" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD3" s="19"/>
-    </row>
-    <row r="4" spans="1:31" ht="121.5" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1000</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1000</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="M4" s="8" t="s">
+      <c r="P4" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="N4" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>118</v>
-      </c>
       <c r="Q4" s="8" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>62</v>
       </c>
       <c r="S4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="121.5" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="T4" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="U4" s="8" t="s">
+      <c r="E5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="L5" s="19"/>
+      <c r="M5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1000</v>
+      </c>
+      <c r="O5" s="8">
+        <v>1000</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="T5" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="W5" s="8">
+        <v>100</v>
+      </c>
+      <c r="X5" s="8">
+        <v>100</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>100</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" s="6" customFormat="1" ht="121.5" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W4" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y4" s="8" t="s">
+      <c r="H6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z4" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA4" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB4" s="8">
+      <c r="J6" s="8">
         <v>1</v>
       </c>
-      <c r="AC4" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD4" s="19"/>
-    </row>
-    <row r="5" spans="1:31" ht="121.5" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="K6" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="L6" s="19"/>
+      <c r="M6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="N6" s="8">
         <v>1000</v>
       </c>
-      <c r="F5" s="8">
-        <v>1000</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N5" s="8">
-        <v>100</v>
-      </c>
-      <c r="O5" s="8">
-        <v>100</v>
-      </c>
-      <c r="P5" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="V5" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="W5" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="X5" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y5" s="8" t="s">
+      <c r="O6" s="8"/>
+      <c r="P6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="Z5" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA5" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD5" s="19"/>
-    </row>
-    <row r="6" spans="1:31" s="6" customFormat="1" ht="121.5" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="8">
-        <v>1000</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>62</v>
       </c>
       <c r="S6" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD6" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" s="7" customFormat="1" ht="121.5" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="T6" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="V6" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="W6" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="X6" s="8" t="s">
+      <c r="G7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="L7" s="19"/>
+      <c r="M7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8">
+        <v>1000</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="W7" s="8">
+        <v>100</v>
+      </c>
+      <c r="X7" s="8">
+        <v>100</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>100</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD7" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="7" customFormat="1" ht="121.5" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="Y6" s="8" t="s">
+      <c r="E8" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB6" s="8">
+      <c r="J8" s="8">
         <v>1</v>
       </c>
-      <c r="AC6" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="2"/>
-    </row>
-    <row r="7" spans="1:31" s="7" customFormat="1" ht="121.5" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8">
-        <v>1000</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N7" s="8">
-        <v>100</v>
-      </c>
-      <c r="O7" s="8">
-        <v>100</v>
-      </c>
-      <c r="P7" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="V7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="W7" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="X7" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y7" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z7" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="2"/>
-    </row>
-    <row r="8" spans="1:31" s="7" customFormat="1" ht="121.5" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>62</v>
-      </c>
       <c r="K8" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>116</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="L8" s="19"/>
       <c r="M8" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>62</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
       <c r="P8" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="R8" s="8" t="s">
         <v>62</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="U8" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="V8" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB8" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD8" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" s="7" customFormat="1" ht="121.5" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="W8" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="X8" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y8" s="8" t="s">
+      <c r="G9" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z8" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA8" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB8" s="8">
+      <c r="J9" s="8">
         <v>1</v>
       </c>
-      <c r="AC8" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="2"/>
-    </row>
-    <row r="9" spans="1:31" s="7" customFormat="1" ht="121.5" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="K9" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="L9" s="19"/>
+      <c r="M9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="N9" s="8">
         <v>1000</v>
       </c>
-      <c r="F9" s="8">
+      <c r="O9" s="8">
         <v>1000</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>62</v>
-      </c>
       <c r="P9" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R9" s="8" t="s">
         <v>62</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="U9" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="X9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD9" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" s="7" customFormat="1" ht="121.5" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" s="19"/>
+      <c r="M10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N10" s="8">
+        <v>1000</v>
+      </c>
+      <c r="O10" s="8">
+        <v>1000</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="R10" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="V9" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="W9" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="X9" s="8" t="s">
+      <c r="S10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="T10" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="Y9" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z9" s="8" t="s">
+      <c r="U10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="X10" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB10" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD10" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" s="7" customFormat="1" ht="121.5" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AA9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB9" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="2"/>
-    </row>
-    <row r="10" spans="1:31" s="7" customFormat="1" ht="121.5" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="J11" s="8">
+        <v>2</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="L11" s="19"/>
+      <c r="M11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="N11" s="8">
         <v>1000</v>
       </c>
-      <c r="F10" s="8">
+      <c r="O11" s="8">
         <v>1000</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="U10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="V10" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="W10" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="X10" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y10" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z10" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA10" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB10" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="2"/>
-    </row>
-    <row r="11" spans="1:31" s="7" customFormat="1" ht="121.5" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="8">
-        <v>1000</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1000</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>62</v>
-      </c>
       <c r="P11" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R11" s="8" t="s">
         <v>62</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U11" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V11" s="8" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="W11" s="8" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="X11" s="8" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="Y11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC11" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD11" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" s="7" customFormat="1" ht="121.5" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z11" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA11" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB11" s="8">
-        <v>2</v>
-      </c>
-      <c r="AC11" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="2"/>
-    </row>
-    <row r="12" spans="1:31" s="7" customFormat="1" ht="121.5" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="J12" s="8">
+        <v>3</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="L12" s="19"/>
+      <c r="M12" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="N12" s="8">
         <v>1000</v>
       </c>
-      <c r="F12" s="8">
+      <c r="O12" s="8">
         <v>1000</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="M12" s="8" t="s">
+      <c r="P12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="R12" s="8" t="s">
         <v>62</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="U12" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V12" s="8" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="W12" s="8" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="X12" s="8" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="Y12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD12" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" s="7" customFormat="1" ht="121.5" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z12" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA12" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB12" s="8">
-        <v>3</v>
-      </c>
-      <c r="AC12" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="2"/>
-    </row>
-    <row r="13" spans="1:31" s="7" customFormat="1" ht="121.5" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="8">
+      <c r="J13" s="8">
+        <v>4</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="8">
         <v>1000</v>
       </c>
-      <c r="F13" s="8">
+      <c r="O13" s="8">
         <v>1000</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>62</v>
-      </c>
       <c r="P13" s="8" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R13" s="8" t="s">
         <v>62</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="U13" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="X13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y13" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD13" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="123" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="8">
+        <v>5</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="N14" s="8">
+        <v>1000</v>
+      </c>
+      <c r="O14" s="8">
+        <v>1000</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="X14" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD14" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="123" customHeight="1">
+      <c r="A15" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="8">
+        <v>6</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" s="8">
+        <v>1000</v>
+      </c>
+      <c r="O15" s="8">
+        <v>1000</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="W15" s="8">
+        <v>100</v>
+      </c>
+      <c r="X15" s="8">
+        <v>100</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC15" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="V13" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="W13" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="X13" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y13" s="8" t="s">
+      <c r="AD15" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="123" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z13" s="8" t="s">
+      <c r="J16" s="8">
+        <v>7</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" s="8">
+        <v>1000</v>
+      </c>
+      <c r="O16" s="8">
+        <v>1000</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="U16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="W16" s="8">
+        <v>100</v>
+      </c>
+      <c r="X16" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC16" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD16" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="123" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" s="8">
+        <v>8</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17" s="8">
+        <v>1000</v>
+      </c>
+      <c r="O17" s="8">
+        <v>1000</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="U17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="W17" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="X17" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y17" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB17" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC17" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD17" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="123" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18" s="8">
+        <v>9</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" s="8">
+        <v>1000</v>
+      </c>
+      <c r="O18" s="8">
+        <v>1000</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="S18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="T18" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="U18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="V18" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="W18" s="8">
+        <v>100</v>
+      </c>
+      <c r="X18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y18" s="8">
+        <v>100</v>
+      </c>
+      <c r="Z18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD18" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="123" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" s="8">
+        <v>10</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" s="8">
+        <v>1000</v>
+      </c>
+      <c r="O19" s="8">
+        <v>1000</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="U19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="V19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="W19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="X19" s="8">
+        <v>100</v>
+      </c>
+      <c r="Y19" s="8">
+        <v>100</v>
+      </c>
+      <c r="Z19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC19" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD19" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="123" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AA13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB13" s="8">
-        <v>4</v>
-      </c>
-      <c r="AC13" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-    </row>
-    <row r="14" spans="1:31" ht="123" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="J20" s="8">
+        <v>11</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="M20" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" s="8">
+      <c r="N20" s="8">
         <v>1000</v>
       </c>
-      <c r="F14" s="8">
+      <c r="O20" s="8">
         <v>1000</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="P20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="S20" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="J14" s="8" t="s">
+      <c r="T20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="U20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="V20" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="W20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="X20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y20" s="8">
+        <v>100</v>
+      </c>
+      <c r="Z20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC20" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="R14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="S14" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="T14" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="U14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="V14" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="W14" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="X14" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y14" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z14" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA14" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB14" s="8">
-        <v>5</v>
-      </c>
-      <c r="AC14" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" ht="123" customHeight="1">
-      <c r="A15" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="8">
-        <v>1000</v>
-      </c>
-      <c r="F15" s="8">
-        <v>1000</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="N15" s="8">
-        <v>100</v>
-      </c>
-      <c r="O15" s="8">
-        <v>100</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="R15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="S15" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="T15" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="U15" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="V15" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="W15" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="X15" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y15" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z15" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA15" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB15" s="8">
-        <v>6</v>
-      </c>
-      <c r="AC15" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" ht="123" customHeight="1">
-      <c r="A16" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="8">
-        <v>1000</v>
-      </c>
-      <c r="F16" s="8">
-        <v>1000</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N16" s="8">
-        <v>100</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="S16" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="T16" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="U16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="V16" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="W16" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="X16" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y16" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z16" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA16" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB16" s="8">
-        <v>7</v>
-      </c>
-      <c r="AC16" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="123" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="8">
-        <v>1000</v>
-      </c>
-      <c r="F17" s="8">
-        <v>1000</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="S17" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="T17" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="U17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="V17" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="W17" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="X17" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y17" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z17" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA17" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB17" s="8">
-        <v>8</v>
-      </c>
-      <c r="AC17" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" ht="123" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="8">
-        <v>1000</v>
-      </c>
-      <c r="F18" s="8">
-        <v>1000</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="N18" s="8">
-        <v>100</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P18" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="R18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="S18" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="T18" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="U18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="V18" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="W18" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="X18" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y18" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z18" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA18" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB18" s="8">
-        <v>9</v>
-      </c>
-      <c r="AC18" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="123" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="8">
-        <v>1000</v>
-      </c>
-      <c r="F19" s="8">
-        <v>1000</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="O19" s="8">
-        <v>100</v>
-      </c>
-      <c r="P19" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="R19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="S19" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="T19" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="U19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="V19" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="W19" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="X19" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y19" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z19" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA19" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB19" s="8">
-        <v>10</v>
-      </c>
-      <c r="AC19" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" ht="123" customHeight="1">
-      <c r="A20" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="8">
-        <v>1000</v>
-      </c>
-      <c r="F20" s="8">
-        <v>1000</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P20" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="R20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="S20" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="T20" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="U20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="V20" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="W20" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="X20" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y20" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z20" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA20" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB20" s="8">
-        <v>11</v>
-      </c>
-      <c r="AC20" s="8" t="s">
-        <v>147</v>
+      <c r="AD20" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X6:X20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F20">
       <formula1>"信息窗口,警告弹出,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F5">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W21:X1048576 W1:W20 AD3:AD1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21:F1048576 E1:E20 L3:L1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化1D单元尺寸定义.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化1D单元尺寸定义.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -4503,8 +4503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4690,7 +4690,7 @@
         <v>67</v>
       </c>
       <c r="AB2" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC2" s="8" t="s">
         <v>146</v>
@@ -5387,7 +5387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C4" workbookViewId="0">
       <selection activeCell="AE1" sqref="AE1:AE1048576"/>
     </sheetView>
   </sheetViews>
